--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1059.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1059.xlsx
@@ -348,7 +348,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B1">
         <v>3.127344804258019</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1059.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1059.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
+        <v>1.068177223205566</v>
+      </c>
+      <c r="B1">
         <v>15</v>
       </c>
-      <c r="B1">
-        <v>3.127344804258019</v>
-      </c>
       <c r="C1">
-        <v>1.904855896685022</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>1.587546942634835</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.50463703641321</v>
+        <v>1.005220532417297</v>
       </c>
     </row>
   </sheetData>
